--- a/tables/avg_corr.xlsx
+++ b/tables/avg_corr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,6 @@
           <t>county splits</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>counties split</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -534,11 +529,6 @@
           <t>*-0.63</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>*-0.62</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -586,11 +576,6 @@
           <t>*-0.95</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>*-0.94</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -638,11 +623,6 @@
           <t>*0.81</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>*0.79</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -686,9 +666,6 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -732,9 +709,6 @@
       <c r="K6" t="n">
         <v>0.01</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -774,9 +748,6 @@
       <c r="K7" t="n">
         <v>-0.04</v>
       </c>
-      <c r="L7" t="n">
-        <v>-0.04</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -820,9 +791,6 @@
       <c r="K8" t="n">
         <v>0.02</v>
       </c>
-      <c r="L8" t="n">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -864,9 +832,6 @@
       <c r="K9" t="n">
         <v>0.04</v>
       </c>
-      <c r="L9" t="n">
-        <v>0.04</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -914,11 +879,6 @@
           <t>*-0.32</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>*-0.31</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -962,63 +922,6 @@
         </is>
       </c>
       <c r="K11" t="inlineStr">
-        <is>
-          <t>*1.0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>*0.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>counties split</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>*-0.62</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>*-0.94</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>*0.79</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>*-0.31</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>*0.99</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
         <is>
           <t>*1.0</t>
         </is>

--- a/tables/avg_corr.xlsx
+++ b/tables/avg_corr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>county splits</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MMD coalition</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -503,17 +508,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>*-0.73</t>
+          <t>*-0.72</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0.01</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H2" t="n">
         <v>-0.01</v>
@@ -529,6 +534,9 @@
           <t>*-0.63</t>
         </is>
       </c>
+      <c r="L2" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -552,10 +560,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0</v>
+        <v>0.01</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="G3" t="n">
         <v>0.05</v>
@@ -576,6 +584,9 @@
           <t>*-0.95</t>
         </is>
       </c>
+      <c r="L3" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -585,7 +596,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>*-0.73</t>
+          <t>*-0.72</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -599,19 +610,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -622,6 +633,9 @@
         <is>
           <t>*0.81</t>
         </is>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -634,10 +648,10 @@
         <v>0.01</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0.01</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -658,13 +672,16 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>-0.09</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.01</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="6">
@@ -674,13 +691,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -697,11 +714,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>*0.61</t>
+          <t>*0.6</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="J6" t="n">
         <v>0.11</v>
@@ -709,6 +726,9 @@
       <c r="K6" t="n">
         <v>0.01</v>
       </c>
+      <c r="L6" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -717,13 +737,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C7" t="n">
         <v>0.05</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="E7" t="n">
         <v>-0.24</v>
@@ -743,10 +763,13 @@
         <v>-0.18</v>
       </c>
       <c r="J7" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -771,7 +794,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>*0.61</t>
+          <t>*0.6</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -783,7 +806,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="J8" t="n">
         <v>0.14</v>
@@ -791,6 +814,9 @@
       <c r="K8" t="n">
         <v>0.02</v>
       </c>
+      <c r="L8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -805,19 +831,19 @@
         <v>-0.04</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="G9" t="n">
         <v>-0.18</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -832,6 +858,9 @@
       <c r="K9" t="n">
         <v>0.04</v>
       </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -859,7 +888,7 @@
         <v>0.11</v>
       </c>
       <c r="G10" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H10" t="n">
         <v>0.14</v>
@@ -879,6 +908,9 @@
           <t>*-0.32</t>
         </is>
       </c>
+      <c r="L10" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -902,13 +934,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="H11" t="n">
         <v>0.02</v>
@@ -922,6 +954,51 @@
         </is>
       </c>
       <c r="K11" t="inlineStr">
+        <is>
+          <t>*1.0</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>MMD coalition</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>*1.0</t>
         </is>
